--- a/medicine/Enfance/Charles_de_Richter/Charles_de_Richter.xlsx
+++ b/medicine/Enfance/Charles_de_Richter/Charles_de_Richter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles de Richter, né le 14 février 1887 à Philippeville, aujourd'hui Skikda, en Algérie, et mort le 12 septembre 1975 à Toulon, est un auteur français de romans populaires, dont plusieurs romans policiers et des ouvrages de littérature d’enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études à l’Université Cambridge, il entre à la faculté de Sciences politiques de Paris et se destine à une carrière de diplomate, projet contrecarré par une maladie cardiaque. Il vit quelque temps avec son père, Jules de Richter, un personnage connu du milieu du théâtre de boulevard, et est mis en relation avec Robert de Montesquiou, Boni de Castellane (1867-1932), Georges Feydeau, Tristan Bernard, Vicente Blasco Ibanez et d'autres célébrités de l'époque. Il se consacre un temps au journalisme littéraire et devient secrétaire du critique de théâtre Ernest La Jeunesse, mais c'est une rencontre déterminante avec Gaston Leroux - à la mort duquel il terminera des années plus tard Les Chasseurs de tête, un roman inachevé - qui le pousse à se lancer dans l’écriture de romans populaires. Il publie d’abord des ouvrages de littérature d’enfance et de jeunesse, un genre auquel il consacrera quelques parutions échelonnées sur toute sa carrière.
 À partir de 1931, il donne à un rythme soutenu de nombreux romans policiers dans la veine des récits anglo-saxons d’Edgar Wallace et de E. Phillips Oppenheim. Décors de la haute bourgeoisie, complots internationaux, femmes stupéfiantes, savants fous et vilains hauts en couleur sont les ingrédients récurrents de ses œuvres, notamment celles de la série mettant en scène le couple tourmenté  que forment Cedric Lacy de Scotland Yard et la mystérieuse Thaisa Strafford. Il poursuit son œuvre pendant la Deuxième Guerre mondiale, alors qu’il s’installe à Toulon, puis à Saint-Donat-sur-l'Herbasse, un petit village de la Drôme.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
-Série Cedric Lacy et Thaisa Strafford
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série Cedric Lacy et Thaisa Strafford
 Cinq heures quarante-deux, Éditions de France, coll. À ne pas lire la nuit no 33, 1934
 L’Ombre de l’autre, Éditions de France, coll. À ne pas lire la nuit no 49, 1934
 Le Signe de la lente mort, Éditions de France, coll. À ne pas lire la nuit no 58, 1935 ; réédition, Gérard, coll. Bibliothèque Marabout no 1052, 1978
@@ -581,18 +603,133 @@
 La Suite du chapitre à demain, Éditions S.E.P.E., coll. Le Bandeau noir, 1947
 Mon ami Lobster, Librairie des Champs-Élysées, Le Masque no 459, 1953
 Le crime était signé, Librairie des Champs-Élysées, Le Masque no 614, 1958 ; réédition, Gérard, coll. Bibliothèque Marabout no 1053, 1978
-Romans d’aventures
-La Bête qui rôde, Éditions de France, 1937
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans d’aventures</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Bête qui rôde, Éditions de France, 1937
 Les Vierges du soleil, Éditions du Hublot, coll. Partir, 1944
 Capitaine Ralph, Éditions du Hublot, coll. Partir, 1945
-Mister Davis a disparu, Éditions du Hublot, coll. Le Livre de minuit, 1946
-Romans d’amour
-La Dame de la tour hexagone, Éditions Chantal, coll. Le roman du jour, 1941
+Mister Davis a disparu, Éditions du Hublot, coll. Le Livre de minuit, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans d’amour</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Dame de la tour hexagone, Éditions Chantal, coll. Le roman du jour, 1941
 La Robe de lune, Éditions Chantal, coll. Le roman du jour, 1946
 Le Rendez-vous avec l’amour, Éditions des Remparts, coll. Rêves bleus no 26, 1952
-Le Carnet d’une “Train bleu”, Éditions du Lama, [s.d.]
-Littérature d’enfance et de jeunesse
-Petite Lavande, Gautier-Languereau, Bibliothèque de Suzette, 1928
+Le Carnet d’une “Train bleu”, Éditions du Lama, [s.d.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Petite Lavande, Gautier-Languereau, Bibliothèque de Suzette, 1928
 Le Roman de Mademoiselle Bulle, Éditions Chantal, 1942
 Au pays de Magali, Éditions Bordas, 1945
 Prix d’Académie de l’Académie française en 1943
@@ -600,78 +737,222 @@
 Prix Sobrier-Arnould de l’Académie française en 1948
 Les Nouveaux Contes de Magali, Éditions Ophrys, 1957
 Prix Sobrier-Arnould de l’Académie française en 1960
-À l’ombre du micocoulier, Éditions A. Bonne, 1966
-Romans humoristiques
-Mon phoque et elle, Éditions Chantal, 1945
-Mon petit singe adoré, Éditions La Table Ronde, 1953
-Poésie
-Bernerette... et mon amour, Chiberre, 1923
-Théâtre
-Eux et lui, comédie en un acte, Éditions du Bélier, [s.d.]
+À l’ombre du micocoulier, Éditions A. Bonne, 1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans humoristiques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon phoque et elle, Éditions Chantal, 1945
+Mon petit singe adoré, Éditions La Table Ronde, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bernerette... et mon amour, Chiberre, 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Eux et lui, comédie en un acte, Éditions du Bélier, [s.d.]
 La Confession de Meudon, un acte, L'Avant-scène, n°195,1959.
-Le plus saisi des trois, un acte, L'Avant-scène, n°353,1966.
-Autres publications
-La Comédie de Deauville, Éditions Le Calame, 1929
+Le plus saisi des trois, un acte, L'Avant-scène, n°353,1966.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Comédie de Deauville, Éditions Le Calame, 1929
 Rien qu’un village de France, Ophrys, 1945
 Dames et drames de jeu et d’amour, 1946</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Charles_de_Richter</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1951 : Mon phoque et elles, film de Pierre Billon, d’après le roman Mon phoque et elle (1945). Une version allemande de ce film français fut tournée au même moment par Billon et Ake Ohberg sous le titre Min vän Oscar.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Charles_de_Richter</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Richter</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 362-364
 Claude Mesplède, Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 650-651.</t>
